--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R5b745c795acc459a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R6240170be44c4448"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R6240170be44c4448"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R37e3a67c9f1f4041"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R37e3a67c9f1f4041"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R2c28697773c34639"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R2c28697773c34639"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="Rb6e4f3842afe4739"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -28,18 +28,18 @@
     <x:font>
       <x:b/>
       <x:sz val="12"/>
-      <x:color rgb="FFFFFF"/>
+      <x:color rgb="FFFFFFFF"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
@@ -52,7 +52,7 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="2E75B6"/>
+        <x:fgColor rgb="FF2E75B6"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="Rb6e4f3842afe4739"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R1a82afe1cfc7434c"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R1a82afe1cfc7434c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R483ee534e0af407d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R483ee534e0af407d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="Re7c463b28a314cfc"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="Re7c463b28a314cfc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R1bad50c8397f4c1c"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R1bad50c8397f4c1c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="Rd2f2eec8ebde4a9a"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="Rd2f2eec8ebde4a9a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R47fe582ed21040f7"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R47fe582ed21040f7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R7d0defb9bffd4bb9"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R7d0defb9bffd4bb9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R17c6c18723f54510"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R17c6c18723f54510"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R73b17e867989496b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R73b17e867989496b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R860140f4a52c4d98"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R860140f4a52c4d98"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="Rad0d1878eefe47bd"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="Rad0d1878eefe47bd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R5bd5c8e53e434ad1"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R5bd5c8e53e434ad1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R145966245f064809"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R145966245f064809"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R75cc239efd054d3e"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R75cc239efd054d3e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R07e59217e5914ff7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R07e59217e5914ff7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="Ra283f3ea1ed749f6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="Ra283f3ea1ed749f6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R35d552767c5f4c39"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R35d552767c5f4c39"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R156cab0091744973"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R156cab0091744973"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R83712a303bdc4784"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R83712a303bdc4784"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R01ee01fdc74147d2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R01ee01fdc74147d2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R3fbfbc6c00154232"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R3fbfbc6c00154232"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R365d27424ace4808"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R365d27424ace4808"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R4a1d3aaf0cda4364"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R4a1d3aaf0cda4364"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R33ed9871cb6648a9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R33ed9871cb6648a9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R6a2533394162421e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R6a2533394162421e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="Rb7b50fe0ed204b3b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="Rb7b50fe0ed204b3b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="Rc0e84865b17a4255"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="Rc0e84865b17a4255"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="Rdab5a74a8be44052"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="Rdab5a74a8be44052"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R486db4dc358943f7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R486db4dc358943f7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R2530f086e7364e9f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R2530f086e7364e9f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R03bf044216ec4bd1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R03bf044216ec4bd1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="Raa16d8bd356d4baf"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="Raa16d8bd356d4baf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="Reacf4b10eafc4700"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="Reacf4b10eafc4700"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R66da150c43c84c59"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R66da150c43c84c59"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R96d20777c2884d8b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R96d20777c2884d8b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R465792a781d64d30"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R465792a781d64d30"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R3920d3ba3da84a8c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R3920d3ba3da84a8c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R04c7e07ac7694c77"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R04c7e07ac7694c77"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R12b56ecdc6ac46b2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R12b56ecdc6ac46b2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R3491bb429dee4ea4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/25_ConditionalFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="R3491bb429dee4ea4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormula" sheetId="1" r:id="Rb9fc4b0e36664045"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
